--- a/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_IND_8760\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IPoY45/Shared Documents/CFE/Models/CFE_NL_IND_8760/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4410707-A914-4723-9547-4430B58C04F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E4410707-A914-4723-9547-4430B58C04F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6158FC05-059D-481F-BABF-DDFB61414618}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="1815" windowWidth="20205" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COM_BND" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>~UC_SETS: R_E: NL</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>\I: Name of the constraint</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>ELC_IND_RES_SUM</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -7516,22 +7516,22 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="15" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1">
@@ -7583,7 +7583,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="2:21" ht="31.7" customHeight="1">
+    <row r="6" spans="2:21" ht="31.65" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
@@ -7609,10 +7609,10 @@
         <v>12</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>9</v>
@@ -7623,32 +7623,32 @@
     </row>
     <row r="7" spans="2:21" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="32" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="42" customHeight="1" thickBot="1">
@@ -7656,13 +7656,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="17" spans="4:11">
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="4:11">
@@ -7706,7 +7706,7 @@
     </row>
     <row r="22" spans="4:11">
       <c r="D22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="20">
         <v>2023</v>
@@ -7732,10 +7732,10 @@
     </row>
     <row r="23" spans="4:11">
       <c r="D23" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="24" spans="4:11">
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="22">
         <f>0.8*E29*3.6</f>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="25" spans="4:11">
       <c r="D25" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="22">
         <f>0.2*E29*3.6</f>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="27" spans="4:11">
       <c r="E27" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="26">
         <v>109.39</v>
@@ -7884,13 +7884,13 @@
     </row>
     <row r="31" spans="4:11">
       <c r="E31" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="4:11">
       <c r="E32" s="29"/>
       <c r="F32" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7916,19 +7916,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45d80b71-d53a-4925-9636-d69011c62a0b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="853a583b-5a39-49db-b57b-0c8a2ee0f312" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd2c708532c000ed42093a134732e2a3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9084b1ab62d6863821126f95089e176" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5851258cc5066775e2233077090f9598">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba2f572c61682d4efb87b423657bb10" ns2:_="" ns3:_="">
     <xsd:import namespace="45d80b71-d53a-4925-9636-d69011c62a0b"/>
     <xsd:import namespace="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
     <xsd:element name="properties">
@@ -7978,7 +7967,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -8037,8 +8026,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -8127,6 +8116,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45d80b71-d53a-4925-9636-d69011c62a0b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="853a583b-5a39-49db-b57b-0c8a2ee0f312" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
   <ds:schemaRefs>
@@ -8136,16 +8136,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D719ED-F694-421A-BE51-82A8776CB24E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEE6CCF-7D5B-4F78-A7A8-3AA1D7193198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
+    <ds:schemaRef ds:uri="45d80b71-d53a-4925-9636-d69011c62a0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>